--- a/Outputs/1. Budget/Output Files/750000/Output_4_29.xlsx
+++ b/Outputs/1. Budget/Output Files/750000/Output_4_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2244901.611019459</v>
+        <v>2259575.958483708</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3254445.780230134</v>
+        <v>3254445.780230137</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9105261.3832951</v>
+        <v>9105261.383295102</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>207.0368788505634</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>230.6992324161051</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>170.7495456997216</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>55.78398704713972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,73 +816,73 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>201.387790646101</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,13 +943,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>83.72646317855325</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>49.3111039422953</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168.1666138174382</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>96.13285199009043</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1223,7 +1223,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.56713651463427</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>145.1806198985548</v>
       </c>
     </row>
     <row r="10">
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>316.8052247026833</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>114.5083253996142</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H11" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S12" t="n">
         <v>147.9721212459916</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>193.7787769293023</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.260654658097</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>123.9836696792835</v>
       </c>
     </row>
     <row r="14">
@@ -1609,16 +1609,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>5.656021302520445</v>
       </c>
       <c r="G14" t="n">
         <v>412.9169039459368</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
         <v>251.1547862223006</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>213.487131928693</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>165.0140383262331</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>201.7569174786027</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1861,7 +1861,7 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>275.7732027483581</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>289.3906785219419</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I18" t="n">
-        <v>45.44580843958677</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>20.90078060183528</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S18" t="n">
         <v>147.9721212459916</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>35.84085665844116</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>79.54839106358291</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4960408938905</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>134.846242847654</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>323.4172149232867</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>99.90681807664348</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>45.44580843958678</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>20.90078060183529</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S21" t="n">
         <v>147.9721212459916</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>123.2665578794171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>185.8476702496199</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>51.34162924275135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>412.4198296272988</v>
       </c>
       <c r="H23" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>99.3325832245972</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V23" t="n">
-        <v>5.162574081601042</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>365.1418450169469</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I24" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S24" t="n">
         <v>143.0320641923714</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>43.61162057280615</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>27.14238428314246</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>193.3981665826384</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H26" t="n">
         <v>309.9502217094637</v>
       </c>
       <c r="I26" t="n">
-        <v>99.3325832245972</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.1150202768096</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>207.1818634066925</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I27" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S27" t="n">
         <v>143.0320641923714</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S28" t="n">
         <v>201.4801154596064</v>
@@ -2769,19 +2769,19 @@
         <v>222.420212896533</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>109.6969267282449</v>
       </c>
       <c r="X28" t="n">
-        <v>76.95903895407596</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2806,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>391.3237359881923</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>86.69312054552617</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T29" t="n">
         <v>210.475920285128</v>
       </c>
       <c r="U29" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I30" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S30" t="n">
         <v>143.0320641923714</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.2771833948815</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3012,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>246.7026254512652</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3037,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3049,7 +3049,7 @@
         <v>309.9502217094637</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>50.88405472369158</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>210.475920285128</v>
@@ -3088,7 +3088,7 @@
         <v>251.1150202768096</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>283.6112985530209</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I33" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S33" t="n">
         <v>143.0320641923714</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>121.5379350644573</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3243,19 +3243,19 @@
         <v>222.420212896533</v>
       </c>
       <c r="U34" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.2296522567779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>130.5446252133667</v>
       </c>
       <c r="U35" t="n">
-        <v>130.5446252133676</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I36" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S36" t="n">
         <v>143.0320641923714</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>222.420212896533</v>
       </c>
       <c r="U37" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>3.134891809934492</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>177.1827161591526</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>412.4198296272988</v>
+        <v>359.1412669565469</v>
       </c>
       <c r="H38" t="n">
-        <v>309.9502217094637</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>34.22657642243732</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T38" t="n">
-        <v>210.475920285128</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.1150202768096</v>
@@ -3602,7 +3602,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I39" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S39" t="n">
         <v>143.0320641923714</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>20.99297006222814</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>170.2296522567777</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H41" t="n">
         <v>309.9502217094637</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>148.5236284716805</v>
+        <v>162.830863375441</v>
       </c>
       <c r="U41" t="n">
         <v>251.1150202768096</v>
@@ -3839,7 +3839,7 @@
         <v>97.33822170543411</v>
       </c>
       <c r="I42" t="n">
-        <v>36.28891401906288</v>
+        <v>36.28891401906289</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.38804207738481</v>
+        <v>4.388042077384824</v>
       </c>
       <c r="S42" t="n">
         <v>143.0320641923714</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H43" t="n">
         <v>150.7296868732905</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>215.4921903452295</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U43" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>210.8128219285874</v>
       </c>
     </row>
     <row r="44">
@@ -3985,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>202.6664917759028</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>412.4198296272988</v>
       </c>
       <c r="H44" t="n">
         <v>309.9502217094637</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>192.5168513392587</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>140.5122218294827</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>119.1476204707264</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>222.420212896533</v>
       </c>
       <c r="U46" t="n">
         <v>286.248492634809</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>245.2733410121001</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>255.9366034337592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>255.9366034337592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>255.9366034337592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>255.9366034337592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4363,19 +4363,19 @@
         <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>742.8341567219593</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V2" t="n">
-        <v>742.8341567219593</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W2" t="n">
         <v>499.3853800778592</v>
       </c>
       <c r="X2" t="n">
-        <v>255.9366034337592</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y2" t="n">
-        <v>255.9366034337592</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>739.4943568267907</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C3" t="n">
-        <v>565.0413275456638</v>
+        <v>328.2071404297052</v>
       </c>
       <c r="D3" t="n">
-        <v>416.1069178844125</v>
+        <v>179.2727307684539</v>
       </c>
       <c r="E3" t="n">
-        <v>256.869462878957</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,22 +4412,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>781.4136778972854</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X3" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y3" t="n">
-        <v>907.7096938468587</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="4">
@@ -4530,10 +4530,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.7186438601369</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>241.7186438601369</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>241.7186438601369</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>241.7186438601369</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>234.7731431109335</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y5" t="n">
-        <v>485.167420504237</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>279.0604900729671</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>104.6074607918401</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4658,40 +4658,40 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>914.2479596093278</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>679.0958513775852</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>447.2758270930352</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
         <v>41.77557929797318</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>540.6514970160482</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="C8" t="n">
-        <v>540.6514970160482</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="D8" t="n">
-        <v>297.2027203719481</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>710.516763498309</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>710.516763498309</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="W8" t="n">
-        <v>710.516763498309</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="X8" t="n">
-        <v>710.516763498309</v>
+        <v>494.3473184075753</v>
       </c>
       <c r="Y8" t="n">
-        <v>710.516763498309</v>
+        <v>494.3473184075753</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>502.6601697108322</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C9" t="n">
-        <v>328.2071404297052</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F9" t="n">
         <v>20.03527576299844</v>
@@ -4892,7 +4892,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>878.6358054958541</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.8755067309003</v>
+        <v>817.4100647040152</v>
       </c>
     </row>
     <row r="10">
@@ -4941,28 +4941,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1611.861580161478</v>
+        <v>1455.646542658306</v>
       </c>
       <c r="C11" t="n">
-        <v>1242.899063221066</v>
+        <v>1455.646542658306</v>
       </c>
       <c r="D11" t="n">
-        <v>922.8937857436081</v>
+        <v>1455.646542658306</v>
       </c>
       <c r="E11" t="n">
-        <v>922.8937857436081</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F11" t="n">
-        <v>511.9078809540005</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G11" t="n">
         <v>511.9078809540005</v>
       </c>
       <c r="H11" t="n">
-        <v>193.6847657265099</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403563</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K11" t="n">
-        <v>666.0988071604012</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L11" t="n">
         <v>1218.912065406599</v>
@@ -5068,25 +5068,25 @@
         <v>3699.589756331025</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T11" t="n">
-        <v>3699.589756331025</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U11" t="n">
-        <v>3445.898053076176</v>
+        <v>3289.683015573004</v>
       </c>
       <c r="V11" t="n">
-        <v>3114.835165732605</v>
+        <v>2958.620128229434</v>
       </c>
       <c r="W11" t="n">
-        <v>2762.066510462491</v>
+        <v>2605.851472959319</v>
       </c>
       <c r="X11" t="n">
-        <v>2388.600752201411</v>
+        <v>2232.38571469824</v>
       </c>
       <c r="Y11" t="n">
-        <v>1998.461420225599</v>
+        <v>1842.246382722428</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914995</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H12" t="n">
         <v>119.8966521363041</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J12" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K12" t="n">
-        <v>157.3616934996499</v>
+        <v>316.517120491584</v>
       </c>
       <c r="L12" t="n">
-        <v>661.7232333657678</v>
+        <v>453.7467185072773</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.268582832872</v>
+        <v>1094.292067974381</v>
       </c>
       <c r="N12" t="n">
-        <v>1975.474275085654</v>
+        <v>1767.497760227163</v>
       </c>
       <c r="O12" t="n">
-        <v>2524.910283838376</v>
+        <v>2316.933768979885</v>
       </c>
       <c r="P12" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q12" t="n">
         <v>2656.336852567651</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.9917951266205</v>
+        <v>224.1084345389563</v>
       </c>
       <c r="C13" t="n">
-        <v>73.9917951266205</v>
+        <v>224.1084345389563</v>
       </c>
       <c r="D13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="F13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>73.99179512662052</v>
       </c>
       <c r="K13" t="n">
         <v>175.03972472223</v>
       </c>
       <c r="L13" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P13" t="n">
         <v>1070.508157165603</v>
@@ -5226,25 +5226,25 @@
         <v>1073.926476585963</v>
       </c>
       <c r="S13" t="n">
-        <v>878.1903382735364</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="T13" t="n">
-        <v>652.5611415859014</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="U13" t="n">
-        <v>363.4089651635811</v>
+        <v>577.3340154160478</v>
       </c>
       <c r="V13" t="n">
-        <v>363.4089651635811</v>
+        <v>577.3340154160478</v>
       </c>
       <c r="W13" t="n">
-        <v>73.9917951266205</v>
+        <v>577.3340154160478</v>
       </c>
       <c r="X13" t="n">
-        <v>73.9917951266205</v>
+        <v>349.3444645180305</v>
       </c>
       <c r="Y13" t="n">
-        <v>73.9917951266205</v>
+        <v>224.1084345389563</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1748.986667826852</v>
+        <v>1240.846680926016</v>
       </c>
       <c r="C14" t="n">
-        <v>1380.024150886441</v>
+        <v>1240.846680926016</v>
       </c>
       <c r="D14" t="n">
-        <v>1021.75845227969</v>
+        <v>882.580982319266</v>
       </c>
       <c r="E14" t="n">
-        <v>1021.75845227969</v>
+        <v>496.7927297210218</v>
       </c>
       <c r="F14" t="n">
-        <v>610.7725474900825</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G14" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L14" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N14" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331026</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331026</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U14" t="n">
-        <v>3445.898053076177</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V14" t="n">
-        <v>3114.835165732606</v>
+        <v>2743.820266497144</v>
       </c>
       <c r="W14" t="n">
-        <v>2899.191598127866</v>
+        <v>2391.05161122703</v>
       </c>
       <c r="X14" t="n">
-        <v>2525.725839866786</v>
+        <v>2017.58585296595</v>
       </c>
       <c r="Y14" t="n">
-        <v>2135.586507890974</v>
+        <v>1627.446520990138</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835159</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893252</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M15" t="n">
-        <v>1666.986340622547</v>
+        <v>1461.539392479452</v>
       </c>
       <c r="N15" t="n">
-        <v>1975.474275085654</v>
+        <v>1660.196134132116</v>
       </c>
       <c r="O15" t="n">
-        <v>2524.910283838376</v>
+        <v>2209.632142884838</v>
       </c>
       <c r="P15" t="n">
         <v>2633.599911365674</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.99179512662052</v>
+        <v>389.8179255524378</v>
       </c>
       <c r="C16" t="n">
-        <v>73.99179512662052</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="D16" t="n">
-        <v>73.99179512662052</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="E16" t="n">
-        <v>73.99179512662052</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F16" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662052</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
         <v>1070.508157165603</v>
@@ -5466,22 +5466,22 @@
         <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>907.2456297917881</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="U16" t="n">
-        <v>618.093453369468</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="V16" t="n">
-        <v>363.4089651635811</v>
+        <v>593.6127916924405</v>
       </c>
       <c r="W16" t="n">
-        <v>73.99179512662052</v>
+        <v>593.6127916924405</v>
       </c>
       <c r="X16" t="n">
-        <v>73.99179512662052</v>
+        <v>593.6127916924405</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.99179512662052</v>
+        <v>389.8179255524378</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1646.119432884795</v>
+        <v>2333.305065052698</v>
       </c>
       <c r="C17" t="n">
-        <v>1646.119432884795</v>
+        <v>1964.342548112286</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.853734278045</v>
+        <v>1606.076849505535</v>
       </c>
       <c r="E17" t="n">
-        <v>902.0654816798005</v>
+        <v>1220.288596907291</v>
       </c>
       <c r="F17" t="n">
-        <v>491.079576890193</v>
+        <v>809.3026921176836</v>
       </c>
       <c r="G17" t="n">
-        <v>73.99179512662052</v>
+        <v>392.2149103541111</v>
       </c>
       <c r="H17" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I17" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J17" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403559</v>
       </c>
       <c r="K17" t="n">
-        <v>666.0988071604013</v>
+        <v>666.0988071604006</v>
       </c>
       <c r="L17" t="n">
-        <v>1218.9120654066</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>1850.629876389911</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N17" t="n">
-        <v>2477.937544449756</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>3543.374718827854</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T17" t="n">
-        <v>3328.574857095565</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U17" t="n">
-        <v>3074.883153840716</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="V17" t="n">
-        <v>3074.883153840716</v>
+        <v>3368.526868987454</v>
       </c>
       <c r="W17" t="n">
-        <v>2796.324363185809</v>
+        <v>3015.758213717339</v>
       </c>
       <c r="X17" t="n">
-        <v>2422.858604924729</v>
+        <v>2723.444397028509</v>
       </c>
       <c r="Y17" t="n">
-        <v>2032.719272948917</v>
+        <v>2333.305065052698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J18" t="n">
-        <v>192.6510469835159</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K18" t="n">
-        <v>260.2588666468724</v>
+        <v>391.162675622009</v>
       </c>
       <c r="L18" t="n">
-        <v>764.6204065129904</v>
+        <v>528.3922736377021</v>
       </c>
       <c r="M18" t="n">
-        <v>1405.165755980094</v>
+        <v>1168.937623104806</v>
       </c>
       <c r="N18" t="n">
-        <v>1603.822497632758</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O18" t="n">
-        <v>2153.25850638548</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P18" t="n">
-        <v>2577.226274866317</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q18" t="n">
         <v>2656.336852567651</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.99179512662052</v>
+        <v>110.1946806401974</v>
       </c>
       <c r="C19" t="n">
-        <v>73.99179512662052</v>
+        <v>110.1946806401974</v>
       </c>
       <c r="D19" t="n">
-        <v>73.99179512662052</v>
+        <v>110.1946806401974</v>
       </c>
       <c r="E19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="F19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J19" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K19" t="n">
-        <v>175.0397247222301</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L19" t="n">
-        <v>359.8727196230481</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M19" t="n">
-        <v>565.1423203422856</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N19" t="n">
-        <v>770.9656851783895</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O19" t="n">
-        <v>945.0605805669882</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P19" t="n">
-        <v>1070.508157165604</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
         <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1073.926476585963</v>
+        <v>943.448515305365</v>
       </c>
       <c r="S19" t="n">
-        <v>1073.926476585963</v>
+        <v>943.448515305365</v>
       </c>
       <c r="T19" t="n">
-        <v>993.5745664207279</v>
+        <v>943.448515305365</v>
       </c>
       <c r="U19" t="n">
-        <v>704.4223899984077</v>
+        <v>654.2963388830449</v>
       </c>
       <c r="V19" t="n">
-        <v>704.4223899984077</v>
+        <v>399.611850677158</v>
       </c>
       <c r="W19" t="n">
-        <v>704.4223899984077</v>
+        <v>110.1946806401974</v>
       </c>
       <c r="X19" t="n">
-        <v>476.4328391003903</v>
+        <v>110.1946806401974</v>
       </c>
       <c r="Y19" t="n">
-        <v>255.6402599568602</v>
+        <v>110.1946806401974</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2452.998035652587</v>
+        <v>1597.994168061634</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.035518712175</v>
+        <v>1229.031651121223</v>
       </c>
       <c r="D20" t="n">
-        <v>1725.769820105425</v>
+        <v>870.7659525144722</v>
       </c>
       <c r="E20" t="n">
-        <v>1339.98156750718</v>
+        <v>484.9776999162281</v>
       </c>
       <c r="F20" t="n">
-        <v>928.9956627175729</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G20" t="n">
-        <v>511.9078809540005</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H20" t="n">
-        <v>193.6847657265099</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I20" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J20" t="n">
-        <v>262.6316941403566</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>666.0988071604011</v>
+        <v>666.0988071604008</v>
       </c>
       <c r="L20" t="n">
         <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>1850.62987638991</v>
+        <v>1850.629876389909</v>
       </c>
       <c r="N20" t="n">
         <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3025.098749216832</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P20" t="n">
-        <v>3454.413795556126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>3699.589756331026</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>3543.374718827854</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>3328.574857095565</v>
+        <v>3328.574857095564</v>
       </c>
       <c r="U20" t="n">
-        <v>3192.366530986823</v>
+        <v>3074.883153840715</v>
       </c>
       <c r="V20" t="n">
-        <v>3192.366530986823</v>
+        <v>2748.199098362647</v>
       </c>
       <c r="W20" t="n">
-        <v>2839.597875716709</v>
+        <v>2748.199098362647</v>
       </c>
       <c r="X20" t="n">
-        <v>2839.597875716709</v>
+        <v>2374.733340101568</v>
       </c>
       <c r="Y20" t="n">
-        <v>2839.597875716709</v>
+        <v>1984.594008125756</v>
       </c>
     </row>
     <row r="21">
@@ -5819,7 +5819,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2540276322777</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G21" t="n">
         <v>220.8126299914996</v>
@@ -5828,28 +5828,28 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J21" t="n">
-        <v>192.6510469835159</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>522.0794512893252</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
         <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1666.986340622547</v>
+        <v>1253.562877620962</v>
       </c>
       <c r="N21" t="n">
-        <v>1975.474275085654</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2524.910283838376</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
         <v>2656.336852567651</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>840.4177801973885</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="C22" t="n">
-        <v>671.4815972694817</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="D22" t="n">
-        <v>521.3649578571459</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="E22" t="n">
-        <v>521.3649578571459</v>
+        <v>220.8817426245308</v>
       </c>
       <c r="F22" t="n">
-        <v>521.3649578571459</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="G22" t="n">
-        <v>352.7581128525293</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="H22" t="n">
-        <v>198.5034697522943</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="I22" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="J22" t="n">
-        <v>73.99179512662052</v>
+        <v>73.99179512662049</v>
       </c>
       <c r="K22" t="n">
-        <v>175.03972472223</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L22" t="n">
-        <v>359.872719623048</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M22" t="n">
-        <v>565.1423203422855</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N22" t="n">
-        <v>770.9656851783894</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O22" t="n">
-        <v>945.0605805669879</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P22" t="n">
         <v>1070.508157165603</v>
@@ -5946,16 +5946,16 @@
         <v>1073.926476585963</v>
       </c>
       <c r="V22" t="n">
-        <v>1073.926476585963</v>
+        <v>886.201557141902</v>
       </c>
       <c r="W22" t="n">
-        <v>1073.926476585963</v>
+        <v>596.7843871049413</v>
       </c>
       <c r="X22" t="n">
-        <v>1073.926476585963</v>
+        <v>368.7948362069239</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.066245027628</v>
+        <v>368.7948362069239</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2440.118683540002</v>
+        <v>2026.701708859132</v>
       </c>
       <c r="C23" t="n">
-        <v>2071.156166599591</v>
+        <v>1657.739191918721</v>
       </c>
       <c r="D23" t="n">
-        <v>1712.89046799284</v>
+        <v>1299.47349331197</v>
       </c>
       <c r="E23" t="n">
-        <v>1327.102215394596</v>
+        <v>913.685240713726</v>
       </c>
       <c r="F23" t="n">
-        <v>916.1163106049881</v>
+        <v>502.6993359241185</v>
       </c>
       <c r="G23" t="n">
-        <v>499.5306241127671</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H23" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I23" t="n">
         <v>86.11364943189744</v>
       </c>
       <c r="J23" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K23" t="n">
-        <v>782.5847574885288</v>
+        <v>782.584757488529</v>
       </c>
       <c r="L23" t="n">
         <v>1413.055650717816</v>
@@ -6016,25 +6016,25 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S23" t="n">
-        <v>4160.908930087624</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="T23" t="n">
-        <v>3948.306990405677</v>
+        <v>4093.080531912925</v>
       </c>
       <c r="U23" t="n">
-        <v>3948.306990405677</v>
+        <v>3839.428996279784</v>
       </c>
       <c r="V23" t="n">
-        <v>3943.09226911113</v>
+        <v>3508.366108936213</v>
       </c>
       <c r="W23" t="n">
-        <v>3590.323613841016</v>
+        <v>3155.597453666099</v>
       </c>
       <c r="X23" t="n">
-        <v>3216.857855579936</v>
+        <v>2782.131695405019</v>
       </c>
       <c r="Y23" t="n">
-        <v>2826.718523604124</v>
+        <v>2413.301548923254</v>
       </c>
     </row>
     <row r="24">
@@ -6074,19 +6074,19 @@
         <v>339.7736208434874</v>
       </c>
       <c r="L24" t="n">
-        <v>534.1725102865889</v>
+        <v>901.3044521370134</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.431726348206</v>
+        <v>1223.765328248207</v>
       </c>
       <c r="N24" t="n">
-        <v>1983.117002730952</v>
+        <v>1490.901654030835</v>
       </c>
       <c r="O24" t="n">
-        <v>2205.274756305936</v>
+        <v>2102.983103689781</v>
       </c>
       <c r="P24" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q24" t="n">
         <v>2633.576141175236</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>852.2217218153633</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="C25" t="n">
-        <v>683.2855388874564</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="D25" t="n">
-        <v>533.1688994751206</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="E25" t="n">
-        <v>385.2558058927275</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="F25" t="n">
-        <v>238.3658583948171</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="G25" t="n">
-        <v>238.3658583948171</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="H25" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I25" t="n">
         <v>86.11364943189744</v>
@@ -6156,43 +6156,43 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M25" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N25" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O25" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P25" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q25" t="n">
         <v>1289.276287324572</v>
       </c>
       <c r="R25" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="S25" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="T25" t="n">
-        <v>1289.276287324572</v>
+        <v>944.2582738222898</v>
       </c>
       <c r="U25" t="n">
-        <v>1289.276287324572</v>
+        <v>900.2061318295563</v>
       </c>
       <c r="V25" t="n">
-        <v>1289.276287324572</v>
+        <v>645.5216436236694</v>
       </c>
       <c r="W25" t="n">
-        <v>1261.85973754362</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="X25" t="n">
-        <v>1033.870186645603</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="Y25" t="n">
-        <v>1033.870186645603</v>
+        <v>356.1044735867089</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1860.618981857837</v>
+        <v>2339.782740888894</v>
       </c>
       <c r="C26" t="n">
-        <v>1491.656464917425</v>
+        <v>1970.820223948482</v>
       </c>
       <c r="D26" t="n">
-        <v>1491.656464917425</v>
+        <v>1612.554525341732</v>
       </c>
       <c r="E26" t="n">
-        <v>1105.868212319181</v>
+        <v>1226.766272743487</v>
       </c>
       <c r="F26" t="n">
-        <v>694.8823075295736</v>
+        <v>815.7803679538799</v>
       </c>
       <c r="G26" t="n">
-        <v>499.5306241127671</v>
+        <v>399.1946814616588</v>
       </c>
       <c r="H26" t="n">
-        <v>186.4495920830057</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I26" t="n">
         <v>86.11364943189744</v>
       </c>
       <c r="J26" t="n">
-        <v>316.5202242826242</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K26" t="n">
-        <v>782.5847574885289</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L26" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M26" t="n">
         <v>2131.182543644155</v>
@@ -6253,25 +6253,25 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S26" t="n">
-        <v>4160.908930087624</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="T26" t="n">
-        <v>3948.306990405677</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="U26" t="n">
-        <v>3694.655454772535</v>
+        <v>4052.030935961731</v>
       </c>
       <c r="V26" t="n">
-        <v>3363.592567428965</v>
+        <v>3842.756326460022</v>
       </c>
       <c r="W26" t="n">
-        <v>3010.82391215885</v>
+        <v>3489.987671189907</v>
       </c>
       <c r="X26" t="n">
-        <v>2637.358153897771</v>
+        <v>3116.521912928828</v>
       </c>
       <c r="Y26" t="n">
-        <v>2247.218821921959</v>
+        <v>2726.382580953016</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J27" t="n">
-        <v>229.6488472869304</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K27" t="n">
-        <v>344.7835943223799</v>
+        <v>270.2534218466019</v>
       </c>
       <c r="L27" t="n">
-        <v>539.1824837654815</v>
+        <v>831.7842531401279</v>
       </c>
       <c r="M27" t="n">
-        <v>1246.441699827099</v>
+        <v>1539.043469201745</v>
       </c>
       <c r="N27" t="n">
-        <v>1988.126976209845</v>
+        <v>1806.179794984373</v>
       </c>
       <c r="O27" t="n">
-        <v>2210.284729784828</v>
+        <v>2418.261244643319</v>
       </c>
       <c r="P27" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q27" t="n">
         <v>2633.576141175236</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="C28" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="D28" t="n">
-        <v>380.9166905122009</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E28" t="n">
-        <v>233.0035969298078</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F28" t="n">
         <v>86.11364943189744</v>
@@ -6393,43 +6393,43 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M28" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N28" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O28" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P28" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q28" t="n">
         <v>1289.276287324572</v>
       </c>
       <c r="R28" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="S28" t="n">
-        <v>1085.761019183556</v>
+        <v>965.4098873949429</v>
       </c>
       <c r="T28" t="n">
-        <v>861.0941374698859</v>
+        <v>740.7430056812732</v>
       </c>
       <c r="U28" t="n">
-        <v>861.0941374698859</v>
+        <v>451.603114130961</v>
       </c>
       <c r="V28" t="n">
-        <v>861.0941374698859</v>
+        <v>196.9186259250742</v>
       </c>
       <c r="W28" t="n">
-        <v>861.0941374698859</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="X28" t="n">
-        <v>783.3577344859708</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="Y28" t="n">
-        <v>562.5651553424407</v>
+        <v>86.11364943189744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.392523365085</v>
+        <v>2114.270517490977</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.430006424674</v>
+        <v>1745.308000550565</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.164307817923</v>
+        <v>1387.042301943815</v>
       </c>
       <c r="E29" t="n">
-        <v>892.3760552196791</v>
+        <v>1001.254049345571</v>
       </c>
       <c r="F29" t="n">
-        <v>481.3901504300715</v>
+        <v>590.2681445559631</v>
       </c>
       <c r="G29" t="n">
-        <v>86.11364943189744</v>
+        <v>173.682458063742</v>
       </c>
       <c r="H29" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I29" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J29" t="n">
-        <v>316.5202242826243</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K29" t="n">
-        <v>782.584757488529</v>
+        <v>782.5847574885288</v>
       </c>
       <c r="L29" t="n">
         <v>1413.055650717816</v>
@@ -6481,34 +6481,34 @@
         <v>3476.372603996238</v>
       </c>
       <c r="P29" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.45275961495</v>
       </c>
       <c r="Q29" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373406</v>
       </c>
       <c r="R29" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="S29" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087623</v>
       </c>
       <c r="T29" t="n">
-        <v>4093.080531912925</v>
+        <v>3948.306990405676</v>
       </c>
       <c r="U29" t="n">
-        <v>3839.428996279784</v>
+        <v>3948.306990405676</v>
       </c>
       <c r="V29" t="n">
-        <v>3508.366108936213</v>
+        <v>3617.244103062105</v>
       </c>
       <c r="W29" t="n">
-        <v>3155.597453666099</v>
+        <v>3264.475447791991</v>
       </c>
       <c r="X29" t="n">
-        <v>2782.131695405019</v>
+        <v>2891.009689530911</v>
       </c>
       <c r="Y29" t="n">
-        <v>2391.992363429207</v>
+        <v>2500.870357555099</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I30" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J30" t="n">
-        <v>104.8187222999257</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K30" t="n">
-        <v>476.7640804989355</v>
+        <v>214.9434958564826</v>
       </c>
       <c r="L30" t="n">
-        <v>1038.294911792462</v>
+        <v>409.3423852995841</v>
       </c>
       <c r="M30" t="n">
-        <v>1284.506114741579</v>
+        <v>1116.601601361201</v>
       </c>
       <c r="N30" t="n">
-        <v>1551.642440524207</v>
+        <v>1858.286877743947</v>
       </c>
       <c r="O30" t="n">
         <v>2102.983103689781</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>383.1202363421435</v>
+        <v>819.2891370181478</v>
       </c>
       <c r="C31" t="n">
-        <v>383.1202363421435</v>
+        <v>819.2891370181478</v>
       </c>
       <c r="D31" t="n">
-        <v>233.0035969298078</v>
+        <v>819.2891370181478</v>
       </c>
       <c r="E31" t="n">
-        <v>233.0035969298078</v>
+        <v>671.3760434357547</v>
       </c>
       <c r="F31" t="n">
-        <v>86.11364943189744</v>
+        <v>524.4860959378443</v>
       </c>
       <c r="G31" t="n">
-        <v>86.11364943189744</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="H31" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I31" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J31" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="K31" t="n">
-        <v>212.8076375348879</v>
+        <v>212.8076375348878</v>
       </c>
       <c r="L31" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962463</v>
       </c>
       <c r="M31" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N31" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O31" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P31" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q31" t="n">
         <v>1289.276287324572</v>
@@ -6648,25 +6648,25 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S31" t="n">
-        <v>1121.319536420652</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T31" t="n">
-        <v>1121.319536420652</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="U31" t="n">
-        <v>1121.319536420652</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="V31" t="n">
-        <v>1121.319536420652</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="W31" t="n">
-        <v>831.9023663836909</v>
+        <v>1040.081716161678</v>
       </c>
       <c r="X31" t="n">
-        <v>603.9128154856736</v>
+        <v>1040.081716161678</v>
       </c>
       <c r="Y31" t="n">
-        <v>383.1202363421435</v>
+        <v>819.2891370181478</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1953.99448829065</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C32" t="n">
-        <v>1585.031971350238</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D32" t="n">
-        <v>1226.766272743487</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E32" t="n">
-        <v>1226.766272743487</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F32" t="n">
-        <v>815.7803679538799</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G32" t="n">
-        <v>399.1946814616588</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H32" t="n">
-        <v>86.11364943189744</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I32" t="n">
         <v>86.11364943189744</v>
       </c>
       <c r="J32" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K32" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L32" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M32" t="n">
         <v>2131.182543644155</v>
@@ -6727,25 +6727,25 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S32" t="n">
-        <v>4254.284436520436</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="T32" t="n">
-        <v>4041.682496838489</v>
+        <v>4093.080531912925</v>
       </c>
       <c r="U32" t="n">
-        <v>3788.030961205348</v>
+        <v>3839.428996279784</v>
       </c>
       <c r="V32" t="n">
-        <v>3456.968073861777</v>
+        <v>3839.428996279784</v>
       </c>
       <c r="W32" t="n">
-        <v>3104.199418591663</v>
+        <v>3486.66034100967</v>
       </c>
       <c r="X32" t="n">
-        <v>2730.733660330583</v>
+        <v>3113.19458274859</v>
       </c>
       <c r="Y32" t="n">
-        <v>2340.594328354771</v>
+        <v>2826.718523604124</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J33" t="n">
-        <v>229.6488472869304</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K33" t="n">
-        <v>344.7835943223799</v>
+        <v>214.9434958564826</v>
       </c>
       <c r="L33" t="n">
-        <v>539.1824837654815</v>
+        <v>747.1589986239721</v>
       </c>
       <c r="M33" t="n">
-        <v>1246.441699827099</v>
+        <v>1454.418214685589</v>
       </c>
       <c r="N33" t="n">
-        <v>1988.126976209845</v>
+        <v>2196.103491068335</v>
       </c>
       <c r="O33" t="n">
-        <v>2210.284729784828</v>
+        <v>2418.261244643319</v>
       </c>
       <c r="P33" t="n">
-        <v>2369.252846559001</v>
+        <v>2577.229361417491</v>
       </c>
       <c r="Q33" t="n">
         <v>2633.576141175236</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86.11364943189744</v>
+        <v>821.4926828480905</v>
       </c>
       <c r="C34" t="n">
-        <v>86.11364943189744</v>
+        <v>821.4926828480905</v>
       </c>
       <c r="D34" t="n">
-        <v>86.11364943189744</v>
+        <v>671.3760434357547</v>
       </c>
       <c r="E34" t="n">
-        <v>86.11364943189744</v>
+        <v>671.3760434357547</v>
       </c>
       <c r="F34" t="n">
-        <v>86.11364943189744</v>
+        <v>524.4860959378443</v>
       </c>
       <c r="G34" t="n">
-        <v>86.11364943189744</v>
+        <v>356.1044735867089</v>
       </c>
       <c r="H34" t="n">
-        <v>86.11364943189744</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I34" t="n">
         <v>86.11364943189744</v>
@@ -6867,43 +6867,43 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M34" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N34" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O34" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P34" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q34" t="n">
         <v>1289.276287324572</v>
       </c>
       <c r="R34" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="S34" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="T34" t="n">
-        <v>1064.609405610903</v>
+        <v>944.2582738222898</v>
       </c>
       <c r="U34" t="n">
-        <v>775.4695140605904</v>
+        <v>944.2582738222898</v>
       </c>
       <c r="V34" t="n">
-        <v>775.4695140605904</v>
+        <v>944.2582738222898</v>
       </c>
       <c r="W34" t="n">
-        <v>486.0523440236298</v>
+        <v>944.2582738222898</v>
       </c>
       <c r="X34" t="n">
-        <v>258.0627931256125</v>
+        <v>944.2582738222898</v>
       </c>
       <c r="Y34" t="n">
-        <v>86.11364943189744</v>
+        <v>944.2582738222898</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>399.1946814616588</v>
       </c>
       <c r="H35" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I35" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J35" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826242</v>
       </c>
       <c r="K35" t="n">
         <v>782.5847574885288</v>
@@ -6946,28 +6946,28 @@
         <v>1413.055650717816</v>
       </c>
       <c r="M35" t="n">
-        <v>2131.182543644155</v>
+        <v>2131.182543644154</v>
       </c>
       <c r="N35" t="n">
-        <v>2846.29748293078</v>
+        <v>2846.297482930779</v>
       </c>
       <c r="O35" t="n">
         <v>3476.372603996238</v>
       </c>
       <c r="P35" t="n">
-        <v>3976.452759614951</v>
+        <v>3976.45275961495</v>
       </c>
       <c r="Q35" t="n">
-        <v>4274.770370373407</v>
+        <v>4274.770370373406</v>
       </c>
       <c r="R35" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="S35" t="n">
-        <v>4305.682471594872</v>
+        <v>4305.682471594871</v>
       </c>
       <c r="T35" t="n">
-        <v>4305.682471594872</v>
+        <v>4173.819213803592</v>
       </c>
       <c r="U35" t="n">
         <v>4173.819213803592</v>
@@ -7013,28 +7013,28 @@
         <v>122.7691181380216</v>
       </c>
       <c r="I36" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J36" t="n">
-        <v>229.6488472869304</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K36" t="n">
-        <v>601.5942054859402</v>
+        <v>476.7640804989354</v>
       </c>
       <c r="L36" t="n">
-        <v>795.9930949290417</v>
+        <v>1038.294911792461</v>
       </c>
       <c r="M36" t="n">
-        <v>1503.252310990659</v>
+        <v>1405.712509473679</v>
       </c>
       <c r="N36" t="n">
-        <v>2196.103491068335</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O36" t="n">
-        <v>2418.261244643319</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P36" t="n">
-        <v>2577.229361417491</v>
+        <v>2369.252846559001</v>
       </c>
       <c r="Q36" t="n">
         <v>2633.576141175236</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.11364943189744</v>
+        <v>402.9629259421974</v>
       </c>
       <c r="C37" t="n">
-        <v>86.11364943189744</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="D37" t="n">
-        <v>86.11364943189744</v>
+        <v>234.0267430142906</v>
       </c>
       <c r="E37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="F37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="G37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="H37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="I37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="J37" t="n">
-        <v>86.11364943189744</v>
+        <v>86.11364943189743</v>
       </c>
       <c r="K37" t="n">
-        <v>212.8076375348879</v>
+        <v>212.8076375348878</v>
       </c>
       <c r="L37" t="n">
-        <v>430.4587576962464</v>
+        <v>430.4587576962463</v>
       </c>
       <c r="M37" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N37" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O37" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P37" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q37" t="n">
         <v>1289.276287324572</v>
@@ -7122,25 +7122,25 @@
         <v>1289.276287324572</v>
       </c>
       <c r="S37" t="n">
-        <v>1085.761019183556</v>
+        <v>1289.276287324572</v>
       </c>
       <c r="T37" t="n">
-        <v>861.0941374698859</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U37" t="n">
-        <v>571.9542459195739</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="V37" t="n">
-        <v>317.269757713687</v>
+        <v>809.9249174050154</v>
       </c>
       <c r="W37" t="n">
-        <v>314.1032003299148</v>
+        <v>809.9249174050154</v>
       </c>
       <c r="X37" t="n">
-        <v>86.11364943189744</v>
+        <v>581.9353665069981</v>
       </c>
       <c r="Y37" t="n">
-        <v>86.11364943189744</v>
+        <v>402.9629259421974</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2005.392523365085</v>
+        <v>2073.220921539784</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.392523365085</v>
+        <v>1704.258404599373</v>
       </c>
       <c r="D38" t="n">
-        <v>1647.126824758335</v>
+        <v>1345.992705992622</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.338572160091</v>
+        <v>960.2044533943779</v>
       </c>
       <c r="F38" t="n">
-        <v>850.3526673704832</v>
+        <v>549.2185486047704</v>
       </c>
       <c r="G38" t="n">
-        <v>433.7669808782622</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="H38" t="n">
-        <v>120.6859488485008</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I38" t="n">
         <v>86.11364943189744</v>
       </c>
       <c r="J38" t="n">
-        <v>316.5202242826242</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K38" t="n">
-        <v>782.5847574885289</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L38" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M38" t="n">
         <v>2131.182543644155</v>
@@ -7201,25 +7201,25 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S38" t="n">
-        <v>4305.682471594872</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="T38" t="n">
-        <v>4093.080531912925</v>
+        <v>4160.908930087624</v>
       </c>
       <c r="U38" t="n">
-        <v>3839.428996279784</v>
+        <v>3907.257394454483</v>
       </c>
       <c r="V38" t="n">
-        <v>3508.366108936213</v>
+        <v>3576.194507110912</v>
       </c>
       <c r="W38" t="n">
-        <v>3155.597453666099</v>
+        <v>3223.425851840798</v>
       </c>
       <c r="X38" t="n">
-        <v>2782.131695405019</v>
+        <v>2849.960093579718</v>
       </c>
       <c r="Y38" t="n">
-        <v>2391.992363429207</v>
+        <v>2459.820761603906</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J39" t="n">
-        <v>229.6488472869304</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K39" t="n">
-        <v>344.7835943223799</v>
+        <v>476.7640804989354</v>
       </c>
       <c r="L39" t="n">
-        <v>539.1824837654815</v>
+        <v>1038.294911792461</v>
       </c>
       <c r="M39" t="n">
-        <v>1246.441699827099</v>
+        <v>1405.712509473679</v>
       </c>
       <c r="N39" t="n">
-        <v>1988.126976209845</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O39" t="n">
-        <v>2210.284729784828</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P39" t="n">
         <v>2369.252846559001</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>840.4941572830247</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="C40" t="n">
-        <v>819.2891370181478</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="D40" t="n">
-        <v>819.2891370181478</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="E40" t="n">
-        <v>671.3760434357547</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="F40" t="n">
-        <v>524.4860959378443</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="G40" t="n">
-        <v>356.1044735867089</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="H40" t="n">
-        <v>203.8522646237892</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="I40" t="n">
         <v>86.11364943189744</v>
@@ -7341,16 +7341,16 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M40" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N40" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O40" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P40" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q40" t="n">
         <v>1289.276287324572</v>
@@ -7362,22 +7362,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="T40" t="n">
-        <v>1289.276287324572</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U40" t="n">
-        <v>1289.276287324572</v>
+        <v>775.4695140605902</v>
       </c>
       <c r="V40" t="n">
-        <v>1289.276287324572</v>
+        <v>603.5203703668753</v>
       </c>
       <c r="W40" t="n">
-        <v>1289.276287324572</v>
+        <v>314.1032003299148</v>
       </c>
       <c r="X40" t="n">
-        <v>1061.286736426555</v>
+        <v>86.11364943189744</v>
       </c>
       <c r="Y40" t="n">
-        <v>840.4941572830247</v>
+        <v>86.11364943189744</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1923.197054396673</v>
+        <v>2440.118683540002</v>
       </c>
       <c r="C41" t="n">
-        <v>1554.234537456261</v>
+        <v>2071.156166599591</v>
       </c>
       <c r="D41" t="n">
-        <v>1195.968838849511</v>
+        <v>1712.89046799284</v>
       </c>
       <c r="E41" t="n">
-        <v>810.1805862512664</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F41" t="n">
-        <v>399.1946814616588</v>
+        <v>916.1163106049883</v>
       </c>
       <c r="G41" t="n">
-        <v>399.1946814616588</v>
+        <v>499.5306241127672</v>
       </c>
       <c r="H41" t="n">
-        <v>86.11364943189744</v>
+        <v>186.4495920830058</v>
       </c>
       <c r="I41" t="n">
         <v>86.11364943189744</v>
       </c>
       <c r="J41" t="n">
-        <v>316.520224282624</v>
+        <v>316.5202242826244</v>
       </c>
       <c r="K41" t="n">
-        <v>782.5847574885288</v>
+        <v>782.5847574885292</v>
       </c>
       <c r="L41" t="n">
-        <v>1413.055650717816</v>
+        <v>1413.055650717817</v>
       </c>
       <c r="M41" t="n">
         <v>2131.182543644155</v>
@@ -7438,25 +7438,25 @@
         <v>4305.682471594872</v>
       </c>
       <c r="S41" t="n">
-        <v>4160.908930087624</v>
+        <v>4305.682471594872</v>
       </c>
       <c r="T41" t="n">
-        <v>4010.885062944512</v>
+        <v>4141.20685202372</v>
       </c>
       <c r="U41" t="n">
-        <v>3757.233527311371</v>
+        <v>3887.555316390579</v>
       </c>
       <c r="V41" t="n">
-        <v>3426.170639967801</v>
+        <v>3556.492429047008</v>
       </c>
       <c r="W41" t="n">
-        <v>3073.401984697686</v>
+        <v>3203.723773776894</v>
       </c>
       <c r="X41" t="n">
-        <v>2699.936226436606</v>
+        <v>2830.258015515814</v>
       </c>
       <c r="Y41" t="n">
-        <v>2309.796894460795</v>
+        <v>2440.118683540002</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>86.11364943189744</v>
       </c>
       <c r="J42" t="n">
-        <v>104.8187222999257</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K42" t="n">
-        <v>214.9434958564827</v>
+        <v>476.7640804989354</v>
       </c>
       <c r="L42" t="n">
-        <v>769.5776104405992</v>
+        <v>1038.294911792461</v>
       </c>
       <c r="M42" t="n">
-        <v>1015.788813389716</v>
+        <v>1405.712509473679</v>
       </c>
       <c r="N42" t="n">
-        <v>1282.925139172345</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O42" t="n">
         <v>1895.006588831291</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>238.3658583948171</v>
+        <v>851.6671612385918</v>
       </c>
       <c r="C43" t="n">
-        <v>238.3658583948171</v>
+        <v>851.6671612385918</v>
       </c>
       <c r="D43" t="n">
-        <v>238.3658583948171</v>
+        <v>701.550521826256</v>
       </c>
       <c r="E43" t="n">
-        <v>238.3658583948171</v>
+        <v>553.6374282438629</v>
       </c>
       <c r="F43" t="n">
-        <v>238.3658583948171</v>
+        <v>406.7474807459525</v>
       </c>
       <c r="G43" t="n">
         <v>238.3658583948171</v>
@@ -7578,16 +7578,16 @@
         <v>430.4587576962464</v>
       </c>
       <c r="M43" t="n">
-        <v>670.330470062023</v>
+        <v>670.3304700620229</v>
       </c>
       <c r="N43" t="n">
-        <v>909.9331856692336</v>
+        <v>909.9331856692334</v>
       </c>
       <c r="O43" t="n">
         <v>1115.228778841303</v>
       </c>
       <c r="P43" t="n">
-        <v>1267.373942480779</v>
+        <v>1267.373942480778</v>
       </c>
       <c r="Q43" t="n">
         <v>1289.276287324572</v>
@@ -7599,22 +7599,22 @@
         <v>1289.276287324572</v>
       </c>
       <c r="T43" t="n">
-        <v>1071.607408187977</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="U43" t="n">
-        <v>782.4675166376646</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="V43" t="n">
-        <v>527.7830284317778</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="W43" t="n">
-        <v>238.3658583948171</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="X43" t="n">
-        <v>238.3658583948171</v>
+        <v>1064.609405610902</v>
       </c>
       <c r="Y43" t="n">
-        <v>238.3658583948171</v>
+        <v>851.6671612385918</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2023.532997047781</v>
+        <v>2259.044058998225</v>
       </c>
       <c r="C44" t="n">
-        <v>1654.570480107369</v>
+        <v>1890.081542057814</v>
       </c>
       <c r="D44" t="n">
-        <v>1296.304781500619</v>
+        <v>1531.815843451063</v>
       </c>
       <c r="E44" t="n">
-        <v>910.5165289023746</v>
+        <v>1327.102215394596</v>
       </c>
       <c r="F44" t="n">
-        <v>499.5306241127671</v>
+        <v>916.1163106049881</v>
       </c>
       <c r="G44" t="n">
         <v>499.5306241127671</v>
@@ -7678,22 +7678,22 @@
         <v>4305.682471594871</v>
       </c>
       <c r="T44" t="n">
-        <v>4111.22100559562</v>
+        <v>4093.080531912924</v>
       </c>
       <c r="U44" t="n">
-        <v>3857.56946996248</v>
+        <v>4093.080531912924</v>
       </c>
       <c r="V44" t="n">
-        <v>3526.506582618909</v>
+        <v>3762.017644569353</v>
       </c>
       <c r="W44" t="n">
-        <v>3173.737927348795</v>
+        <v>3409.248989299239</v>
       </c>
       <c r="X44" t="n">
-        <v>2800.272169087715</v>
+        <v>3035.783231038159</v>
       </c>
       <c r="Y44" t="n">
-        <v>2410.132837111903</v>
+        <v>2645.643899062347</v>
       </c>
     </row>
     <row r="45">
@@ -7727,22 +7727,22 @@
         <v>86.11364943189743</v>
       </c>
       <c r="J45" t="n">
-        <v>229.6488472869303</v>
+        <v>104.8187222999256</v>
       </c>
       <c r="K45" t="n">
-        <v>344.78359432238</v>
+        <v>476.7640804989354</v>
       </c>
       <c r="L45" t="n">
-        <v>539.1824837654815</v>
+        <v>1038.294911792461</v>
       </c>
       <c r="M45" t="n">
-        <v>1246.441699827099</v>
+        <v>1405.712509473679</v>
       </c>
       <c r="N45" t="n">
-        <v>1988.126976209845</v>
+        <v>1672.848835256307</v>
       </c>
       <c r="O45" t="n">
-        <v>2210.284729784828</v>
+        <v>1895.006588831291</v>
       </c>
       <c r="P45" t="n">
         <v>2369.252846559001</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>228.0451866333951</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="C46" t="n">
-        <v>228.0451866333951</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="D46" t="n">
-        <v>228.0451866333951</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="E46" t="n">
-        <v>228.0451866333951</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="F46" t="n">
-        <v>86.11364943189743</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="G46" t="n">
-        <v>86.11364943189743</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="H46" t="n">
-        <v>86.11364943189743</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="I46" t="n">
         <v>86.11364943189743</v>
@@ -7830,28 +7830,28 @@
         <v>1289.276287324572</v>
       </c>
       <c r="R46" t="n">
-        <v>1289.276287324572</v>
+        <v>1168.925155535959</v>
       </c>
       <c r="S46" t="n">
-        <v>1289.276287324572</v>
+        <v>965.4098873949429</v>
       </c>
       <c r="T46" t="n">
-        <v>1289.276287324572</v>
+        <v>740.7430056812732</v>
       </c>
       <c r="U46" t="n">
-        <v>1000.13639577426</v>
+        <v>451.603114130961</v>
       </c>
       <c r="V46" t="n">
-        <v>745.451907568373</v>
+        <v>451.603114130961</v>
       </c>
       <c r="W46" t="n">
-        <v>456.0347375314124</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="X46" t="n">
-        <v>228.0451866333951</v>
+        <v>203.8522646237892</v>
       </c>
       <c r="Y46" t="n">
-        <v>228.0451866333951</v>
+        <v>203.8522646237892</v>
       </c>
     </row>
   </sheetData>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>6.233205181928668</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K12" t="n">
-        <v>15.9212916259322</v>
+        <v>176.6843491935425</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,16 +9014,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>378.0407240669703</v>
       </c>
       <c r="N15" t="n">
-        <v>110.940598798427</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928724</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>252.0838998303354</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.94306717106809</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9488,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617264136</v>
       </c>
       <c r="N21" t="n">
-        <v>110.940598798427</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>77.01987188088549</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>5.060579271608475</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>5.060579271608617</v>
+        <v>55.86861211123158</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,19 +10193,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>332.507989485445</v>
+        <v>22.76613370792967</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>5.060579271608617</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>341.2289023478667</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,28 +10664,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>122.4307017495961</v>
       </c>
       <c r="N36" t="n">
-        <v>430.0150043384325</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,25 +10901,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>5.060579271608617</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>122.4307017495961</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11141,19 +11141,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>363.8739647889041</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>122.4307017495961</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11375,25 +11375,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>5.060579271608759</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>122.4307017495961</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23260,19 +23260,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>37.87781691799967</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>267.4220446726476</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.651863114966</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23439,7 +23439,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176917</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>129.1731816677914</v>
       </c>
       <c r="S13" t="n">
-        <v>11.58710497081643</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>94.60098367281134</v>
       </c>
     </row>
     <row r="14">
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>401.220024439191</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>135.75383678872</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,7 +23664,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23676,7 +23676,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176917</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T16" t="n">
-        <v>58.35886639452562</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>16.82773587349209</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4960408938905</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>73.46776596905494</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>80.3404221565271</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>110.593105988128</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23913,7 +23913,7 @@
         <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>17.69584188176916</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>129.1731816677914</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>143.8245136571758</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>116.3085433746467</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>4.335043546848169</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>17.69584188176917</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
         <v>205.3658819001187</v>
@@ -24186,16 +24186,16 @@
         <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>66.28997307420806</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>167.2430241093434</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24223,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1150202768096</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>322.5896843885338</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>21.09609363910664</v>
       </c>
     </row>
     <row r="24">
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.697806127624</v>
@@ -24384,10 +24384,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>201.4801154596064</v>
       </c>
       <c r="T25" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.248492634809</v>
+        <v>242.6368720620029</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>259.3806140534485</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>219.0216630446604</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>120.5703950634424</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.697806127624</v>
@@ -24621,10 +24621,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I28" t="n">
-        <v>116.5612290399728</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J28" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>176.8260716083461</v>
       </c>
       <c r="X28" t="n">
-        <v>148.7506164349612</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>21.09609363910647</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>309.9502217094637</v>
+        <v>223.2571011639376</v>
       </c>
       <c r="I29" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24843,25 +24843,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S31" t="n">
-        <v>35.20293206472496</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T31" t="n">
         <v>222.420212896533</v>
@@ -24900,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>39.82037288532581</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>99.3325832245972</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>92.44175136848423</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>102.6266401030327</v>
       </c>
     </row>
     <row r="33">
@@ -25074,31 +25074,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>58.29404511747998</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>150.7296868732905</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>116.5612290399728</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>201.4801154596064</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.35500109531691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>99.3325832245972</v>
+        <v>99.33258322459722</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T35" t="n">
-        <v>210.475920285128</v>
+        <v>79.93129507176133</v>
       </c>
       <c r="U35" t="n">
-        <v>120.570395063442</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,10 +25332,10 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I37" t="n">
-        <v>116.5612290399728</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J37" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>119.1476204707264</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>201.4801154596064</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>283.3881065266565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>41.40193719294217</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>53.27856267075185</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>309.9502217094637</v>
       </c>
       <c r="I38" t="n">
-        <v>65.10600680215988</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>143.3258060921758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.475920285128</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>146.2538510363997</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.697806127624</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>150.7296868732905</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J40" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,22 +25602,22 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T40" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.248492634809</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>81.90799106705029</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>412.4198296272988</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>99.3325832245972</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>143.3258060921758</v>
       </c>
       <c r="T41" t="n">
-        <v>61.95229181344752</v>
+        <v>47.64505690968701</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25791,25 +25791,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.697806127624</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>116.5612290399728</v>
+        <v>116.5612290399729</v>
       </c>
       <c r="J43" t="n">
-        <v>1.931832696655007</v>
+        <v>1.931832696655022</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>201.4801154596064</v>
       </c>
       <c r="T43" t="n">
-        <v>6.928022551303457</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.248492634809</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>7.771831423507422</v>
       </c>
     </row>
     <row r="44">
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>179.2638782963589</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>412.4198296272988</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>143.3258060921758</v>
       </c>
       <c r="T44" t="n">
-        <v>17.95906894586929</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.1150202768096</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>4.90882619344859</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.697806127624</v>
@@ -26043,7 +26043,7 @@
         <v>150.7296868732905</v>
       </c>
       <c r="I46" t="n">
-        <v>116.5612290399729</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>1.931832696655022</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>119.1476204707264</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>201.4801154596064</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.420212896533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>41.2496573244909</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>724493.1068223928</v>
+        <v>724493.106822393</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>724493.1068223929</v>
+        <v>724493.1068223927</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>724493.1068223929</v>
+        <v>724493.1068223928</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>779627.8766766344</v>
+        <v>779627.8766766343</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>779627.8766766345</v>
+        <v>779627.8766766343</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>779627.8766766344</v>
+        <v>779627.8766766343</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>779627.8766766344</v>
+        <v>779627.8766766343</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>779627.8766766344</v>
+        <v>779627.8766766343</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>779627.8766766343</v>
+        <v>779627.8766766345</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>779627.8766766342</v>
+        <v>779627.8766766343</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="C2" t="n">
+        <v>595255.2831516052</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="D2" t="n">
-        <v>595255.2831516052</v>
-      </c>
       <c r="E2" t="n">
+        <v>489716.7007553185</v>
+      </c>
+      <c r="F2" t="n">
         <v>489716.7007553187</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>489716.7007553186</v>
       </c>
-      <c r="G2" t="n">
-        <v>489716.7007553189</v>
-      </c>
       <c r="H2" t="n">
-        <v>489716.7007553186</v>
+        <v>489716.7007553187</v>
       </c>
       <c r="I2" t="n">
-        <v>530050.9148164059</v>
+        <v>530050.914816406</v>
       </c>
       <c r="J2" t="n">
+        <v>530050.9148164062</v>
+      </c>
+      <c r="K2" t="n">
+        <v>530050.9148164061</v>
+      </c>
+      <c r="L2" t="n">
         <v>530050.914816406</v>
       </c>
-      <c r="K2" t="n">
-        <v>530050.9148164059</v>
-      </c>
-      <c r="L2" t="n">
-        <v>530050.9148164061</v>
-      </c>
       <c r="M2" t="n">
-        <v>530050.9148164062</v>
+        <v>530050.914816406</v>
       </c>
       <c r="N2" t="n">
         <v>530050.914816406</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>133368.5290586867</v>
+        <v>133368.5290586868</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910623</v>
@@ -26435,31 +26435,31 @@
         <v>31167.87428357367</v>
       </c>
       <c r="H4" t="n">
-        <v>31167.87428357367</v>
+        <v>31167.87428357368</v>
       </c>
       <c r="I4" t="n">
-        <v>29449.66426332454</v>
+        <v>29449.66426332455</v>
       </c>
       <c r="J4" t="n">
         <v>29449.66426332455</v>
       </c>
       <c r="K4" t="n">
-        <v>29449.66426332454</v>
+        <v>29449.66426332455</v>
       </c>
       <c r="L4" t="n">
         <v>29449.66426332455</v>
       </c>
       <c r="M4" t="n">
-        <v>29449.66426332455</v>
+        <v>29449.66426332454</v>
       </c>
       <c r="N4" t="n">
-        <v>29449.66426332455</v>
+        <v>29449.66426332454</v>
       </c>
       <c r="O4" t="n">
         <v>29449.66426332454</v>
       </c>
       <c r="P4" t="n">
-        <v>29449.66426332455</v>
+        <v>29449.66426332454</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>69171.54328360138</v>
+      </c>
+      <c r="F5" t="n">
         <v>69171.54328360136</v>
       </c>
-      <c r="F5" t="n">
-        <v>69171.54328360138</v>
-      </c>
       <c r="G5" t="n">
-        <v>69171.54328360138</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="H5" t="n">
-        <v>69171.54328360138</v>
+        <v>69171.54328360135</v>
       </c>
       <c r="I5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="J5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="K5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.6623170063</v>
       </c>
       <c r="L5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="M5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.6623170063</v>
       </c>
       <c r="N5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="O5" t="n">
-        <v>81079.66231700632</v>
+        <v>81079.66231700631</v>
       </c>
       <c r="P5" t="n">
         <v>81079.6623170063</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155282.6347765251</v>
+        <v>155282.6347765249</v>
       </c>
       <c r="C6" t="n">
+        <v>236052.0663080726</v>
+      </c>
+      <c r="D6" t="n">
         <v>236052.0663080727</v>
       </c>
-      <c r="D6" t="n">
-        <v>236052.0663080726</v>
-      </c>
       <c r="E6" t="n">
-        <v>-295254.9209356361</v>
+        <v>-291979.5856198895</v>
       </c>
       <c r="F6" t="n">
-        <v>385738.0217262026</v>
+        <v>389013.3570419496</v>
       </c>
       <c r="G6" t="n">
-        <v>385738.0217262029</v>
+        <v>389013.3570419495</v>
       </c>
       <c r="H6" t="n">
-        <v>385738.0217262027</v>
+        <v>389013.3570419496</v>
       </c>
       <c r="I6" t="n">
-        <v>283904.6326830711</v>
+        <v>285928.2165279566</v>
       </c>
       <c r="J6" t="n">
-        <v>354213.2191426517</v>
+        <v>356236.8029875374</v>
       </c>
       <c r="K6" t="n">
-        <v>417273.1617417578</v>
+        <v>419296.7455866435</v>
       </c>
       <c r="L6" t="n">
-        <v>417273.1617417581</v>
+        <v>419296.7455866434</v>
       </c>
       <c r="M6" t="n">
-        <v>246846.7451780471</v>
+        <v>248870.3290229324</v>
       </c>
       <c r="N6" t="n">
-        <v>417273.1617417579</v>
+        <v>419296.7455866434</v>
       </c>
       <c r="O6" t="n">
-        <v>417273.1617417579</v>
+        <v>419296.7455866434</v>
       </c>
       <c r="P6" t="n">
-        <v>417273.1617417581</v>
+        <v>419296.7455866435</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="G3" t="n">
-        <v>593.4761003380637</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="H3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="I3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="J3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="K3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="L3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="M3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="N3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="O3" t="n">
-        <v>717.1233370992779</v>
+        <v>717.1233370992778</v>
       </c>
       <c r="P3" t="n">
         <v>717.1233370992778</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
+        <v>924.8974390827564</v>
+      </c>
+      <c r="F4" t="n">
         <v>924.8974390827563</v>
       </c>
-      <c r="F4" t="n">
-        <v>924.8974390827565</v>
-      </c>
       <c r="G4" t="n">
-        <v>924.8974390827565</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="H4" t="n">
-        <v>924.8974390827565</v>
+        <v>924.8974390827561</v>
       </c>
       <c r="I4" t="n">
         <v>1076.420617898718</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>593.4761003380636</v>
+        <v>593.4761003380635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>123.6472367612143</v>
+        <v>123.6472367612145</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>151.5231788159616</v>
+        <v>151.523178815962</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776591</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>199.8391668911481</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,16 +27435,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>139.031868262364</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27457,10 +27457,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.958953288594103</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27478,7 +27478,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>149.8987087301646</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>213.9149468690341</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>268.4108542424576</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27694,10 +27694,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27712,7 +27712,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>28.50898105794322</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,22 +27742,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>150.8536247525263</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>40.41943799383367</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>34.50357226344606</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>214.5672278460424</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>231.6194064800445</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27943,7 +27943,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15.59069763800886</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -28000,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>60.50207587874957</v>
       </c>
     </row>
     <row r="10">
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.05078607424915</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G10" t="n">
         <v>167.9909793584588</v>
@@ -28037,7 +28037,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -31755,10 +31755,10 @@
         <v>2.385833569198244</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J11" t="n">
         <v>202.4946418937396</v>
@@ -31767,16 +31767,16 @@
         <v>303.4869768779013</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712522</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M11" t="n">
         <v>418.9314987074814</v>
       </c>
       <c r="N11" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P11" t="n">
         <v>343.0858495426692</v>
@@ -31794,7 +31794,7 @@
         <v>10.44398644916532</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I12" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J12" t="n">
         <v>120.604421484738</v>
@@ -31849,31 +31849,31 @@
         <v>277.1701353512815</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O12" t="n">
         <v>303.7197925947069</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q12" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S12" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,46 +31913,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206993</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K13" t="n">
         <v>124.3381075790238</v>
       </c>
       <c r="L13" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N13" t="n">
         <v>163.7702163441087</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P13" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S13" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J14" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712522</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
         <v>120.604421484738</v>
@@ -32083,34 +32083,34 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206993</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S16" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H17" t="n">
-        <v>24.43391804055153</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>91.9798486765154</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J17" t="n">
-        <v>202.4946418937397</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>303.4869768779014</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L17" t="n">
-        <v>376.5024309712522</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M17" t="n">
-        <v>418.9314987074815</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N17" t="n">
-        <v>425.7102483359661</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O17" t="n">
-        <v>401.986115782251</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P17" t="n">
-        <v>343.0858495426693</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q17" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>54.36718245810504</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T17" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>12.32862615985299</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>43.95082441182831</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
         <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>206.1321659070424</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>277.1701353512816</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M18" t="n">
-        <v>323.4444746842447</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>332.0050874900646</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O18" t="n">
-        <v>303.719792594707</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P18" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>162.9483813607454</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>79.25705355080785</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S18" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>5.145325813308305</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08398246702897132</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.070202803888312</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>9.515075838206995</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I19" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J19" t="n">
-        <v>75.66333823490362</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K19" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L19" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O19" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>89.61489115104762</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R19" t="n">
-        <v>48.12020970937807</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S19" t="n">
-        <v>18.65071613685357</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>4.572684707522784</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.385833569198244</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H20" t="n">
-        <v>24.43391804055152</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>91.97984867651539</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J20" t="n">
         <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>303.4869768779013</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L20" t="n">
-        <v>376.5024309712522</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M20" t="n">
-        <v>418.9314987074814</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N20" t="n">
-        <v>425.710248335966</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O20" t="n">
-        <v>401.9861157822509</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P20" t="n">
-        <v>343.0858495426692</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q20" t="n">
-        <v>257.643184845757</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>54.36718245810503</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T20" t="n">
-        <v>10.44398644916532</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1908666855358595</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>43.9508244118283</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
         <v>120.604421484738</v>
@@ -32557,34 +32557,34 @@
         <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>277.1701353512815</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M21" t="n">
-        <v>323.4444746842446</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>332.0050874900645</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O21" t="n">
-        <v>303.7197925947069</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P21" t="n">
-        <v>243.7619099671568</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
         <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>79.25705355080784</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S21" t="n">
-        <v>23.71104985784621</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>5.145325813308304</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0839824670289713</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>9.515075838206993</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I22" t="n">
-        <v>32.18391704784123</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J22" t="n">
-        <v>75.66333823490361</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K22" t="n">
-        <v>124.3381075790238</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L22" t="n">
-        <v>159.109969588995</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>167.7591540676923</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>163.7702163441087</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O22" t="n">
-        <v>151.2683017714134</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
         <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>89.6148911510476</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R22" t="n">
-        <v>48.12020970937806</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S22" t="n">
         <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>4.572684707522783</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05837469839390796</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32715,28 +32715,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L23" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M23" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N23" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O23" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P23" t="n">
-        <v>414.5657579057188</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q23" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725814</v>
       </c>
       <c r="R23" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S23" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406953</v>
       </c>
       <c r="T23" t="n">
         <v>12.61992927900337</v>
@@ -32785,7 +32785,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I24" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235218</v>
       </c>
       <c r="J24" t="n">
         <v>145.731639664675</v>
@@ -32794,7 +32794,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L24" t="n">
-        <v>334.9168943688657</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M24" t="n">
         <v>390.8322187191064</v>
@@ -32803,7 +32803,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O24" t="n">
-        <v>366.9980157323069</v>
+        <v>366.9980157323068</v>
       </c>
       <c r="P24" t="n">
         <v>294.548262741777</v>
@@ -32812,13 +32812,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R24" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S24" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146641</v>
       </c>
       <c r="T24" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U24" t="n">
         <v>0.1014797175140488</v>
@@ -32861,13 +32861,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H25" t="n">
-        <v>11.49748563414909</v>
+        <v>11.49748563414908</v>
       </c>
       <c r="I25" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728543</v>
       </c>
       <c r="J25" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K25" t="n">
         <v>150.2432171824388</v>
@@ -32879,7 +32879,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N25" t="n">
-        <v>197.8907726785599</v>
+        <v>197.8907726785598</v>
       </c>
       <c r="O25" t="n">
         <v>182.7841581183537</v>
@@ -32888,16 +32888,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q25" t="n">
-        <v>108.285623901991</v>
+        <v>108.2856239019909</v>
       </c>
       <c r="R25" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S25" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T25" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U25" t="n">
         <v>0.07053672168189626</v>
@@ -32952,28 +32952,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L26" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M26" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N26" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O26" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P26" t="n">
-        <v>414.5657579057188</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q26" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725814</v>
       </c>
       <c r="R26" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S26" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406953</v>
       </c>
       <c r="T26" t="n">
         <v>12.61992927900337</v>
@@ -33022,7 +33022,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I27" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235218</v>
       </c>
       <c r="J27" t="n">
         <v>145.731639664675</v>
@@ -33031,7 +33031,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L27" t="n">
-        <v>334.9168943688657</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M27" t="n">
         <v>390.8322187191064</v>
@@ -33040,7 +33040,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O27" t="n">
-        <v>366.9980157323069</v>
+        <v>366.9980157323068</v>
       </c>
       <c r="P27" t="n">
         <v>294.548262741777</v>
@@ -33049,13 +33049,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R27" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S27" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146641</v>
       </c>
       <c r="T27" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U27" t="n">
         <v>0.1014797175140488</v>
@@ -33098,13 +33098,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H28" t="n">
-        <v>11.49748563414909</v>
+        <v>11.49748563414908</v>
       </c>
       <c r="I28" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728543</v>
       </c>
       <c r="J28" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K28" t="n">
         <v>150.2432171824388</v>
@@ -33116,7 +33116,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N28" t="n">
-        <v>197.8907726785599</v>
+        <v>197.8907726785598</v>
       </c>
       <c r="O28" t="n">
         <v>182.7841581183537</v>
@@ -33125,16 +33125,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q28" t="n">
-        <v>108.285623901991</v>
+        <v>108.2856239019909</v>
       </c>
       <c r="R28" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S28" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T28" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U28" t="n">
         <v>0.07053672168189626</v>
@@ -33189,28 +33189,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L29" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M29" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N29" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O29" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P29" t="n">
-        <v>414.5657579057188</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q29" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725814</v>
       </c>
       <c r="R29" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S29" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406953</v>
       </c>
       <c r="T29" t="n">
         <v>12.61992927900337</v>
@@ -33259,7 +33259,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I30" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235218</v>
       </c>
       <c r="J30" t="n">
         <v>145.731639664675</v>
@@ -33268,7 +33268,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L30" t="n">
-        <v>334.9168943688657</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M30" t="n">
         <v>390.8322187191064</v>
@@ -33277,7 +33277,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O30" t="n">
-        <v>366.9980157323069</v>
+        <v>366.9980157323068</v>
       </c>
       <c r="P30" t="n">
         <v>294.548262741777</v>
@@ -33286,13 +33286,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R30" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S30" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146641</v>
       </c>
       <c r="T30" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U30" t="n">
         <v>0.1014797175140488</v>
@@ -33335,13 +33335,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H31" t="n">
-        <v>11.49748563414909</v>
+        <v>11.49748563414908</v>
       </c>
       <c r="I31" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728543</v>
       </c>
       <c r="J31" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K31" t="n">
         <v>150.2432171824388</v>
@@ -33353,7 +33353,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N31" t="n">
-        <v>197.8907726785599</v>
+        <v>197.8907726785598</v>
       </c>
       <c r="O31" t="n">
         <v>182.7841581183537</v>
@@ -33362,16 +33362,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q31" t="n">
-        <v>108.285623901991</v>
+        <v>108.2856239019909</v>
       </c>
       <c r="R31" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S31" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T31" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U31" t="n">
         <v>0.07053672168189626</v>
@@ -33426,28 +33426,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L32" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M32" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N32" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O32" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P32" t="n">
-        <v>414.5657579057188</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q32" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725814</v>
       </c>
       <c r="R32" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S32" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406953</v>
       </c>
       <c r="T32" t="n">
         <v>12.61992927900337</v>
@@ -33496,7 +33496,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I33" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235218</v>
       </c>
       <c r="J33" t="n">
         <v>145.731639664675</v>
@@ -33505,7 +33505,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L33" t="n">
-        <v>334.9168943688657</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M33" t="n">
         <v>390.8322187191064</v>
@@ -33514,7 +33514,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O33" t="n">
-        <v>366.9980157323069</v>
+        <v>366.9980157323068</v>
       </c>
       <c r="P33" t="n">
         <v>294.548262741777</v>
@@ -33523,13 +33523,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R33" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S33" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146641</v>
       </c>
       <c r="T33" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U33" t="n">
         <v>0.1014797175140488</v>
@@ -33572,13 +33572,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H34" t="n">
-        <v>11.49748563414909</v>
+        <v>11.49748563414908</v>
       </c>
       <c r="I34" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728543</v>
       </c>
       <c r="J34" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K34" t="n">
         <v>150.2432171824388</v>
@@ -33590,7 +33590,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N34" t="n">
-        <v>197.8907726785599</v>
+        <v>197.8907726785598</v>
       </c>
       <c r="O34" t="n">
         <v>182.7841581183537</v>
@@ -33599,16 +33599,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q34" t="n">
-        <v>108.285623901991</v>
+        <v>108.2856239019909</v>
       </c>
       <c r="R34" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S34" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T34" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U34" t="n">
         <v>0.07053672168189626</v>
@@ -33663,28 +33663,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L35" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M35" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N35" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O35" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P35" t="n">
-        <v>414.5657579057188</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q35" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725814</v>
       </c>
       <c r="R35" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S35" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406953</v>
       </c>
       <c r="T35" t="n">
         <v>12.61992927900337</v>
@@ -33733,7 +33733,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I36" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235218</v>
       </c>
       <c r="J36" t="n">
         <v>145.731639664675</v>
@@ -33742,7 +33742,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L36" t="n">
-        <v>334.9168943688657</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M36" t="n">
         <v>390.8322187191064</v>
@@ -33751,7 +33751,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O36" t="n">
-        <v>366.9980157323069</v>
+        <v>366.9980157323068</v>
       </c>
       <c r="P36" t="n">
         <v>294.548262741777</v>
@@ -33760,13 +33760,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R36" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S36" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146641</v>
       </c>
       <c r="T36" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U36" t="n">
         <v>0.1014797175140488</v>
@@ -33809,13 +33809,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H37" t="n">
-        <v>11.49748563414909</v>
+        <v>11.49748563414908</v>
       </c>
       <c r="I37" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728543</v>
       </c>
       <c r="J37" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K37" t="n">
         <v>150.2432171824388</v>
@@ -33827,7 +33827,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N37" t="n">
-        <v>197.8907726785599</v>
+        <v>197.8907726785598</v>
       </c>
       <c r="O37" t="n">
         <v>182.7841581183537</v>
@@ -33836,16 +33836,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q37" t="n">
-        <v>108.285623901991</v>
+        <v>108.2856239019909</v>
       </c>
       <c r="R37" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S37" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T37" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U37" t="n">
         <v>0.07053672168189626</v>
@@ -33900,28 +33900,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L38" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M38" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N38" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O38" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P38" t="n">
-        <v>414.5657579057188</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q38" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725814</v>
       </c>
       <c r="R38" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S38" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406953</v>
       </c>
       <c r="T38" t="n">
         <v>12.61992927900337</v>
@@ -33970,7 +33970,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I39" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235218</v>
       </c>
       <c r="J39" t="n">
         <v>145.731639664675</v>
@@ -33979,7 +33979,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L39" t="n">
-        <v>334.9168943688657</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M39" t="n">
         <v>390.8322187191064</v>
@@ -33988,7 +33988,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O39" t="n">
-        <v>366.9980157323069</v>
+        <v>366.9980157323068</v>
       </c>
       <c r="P39" t="n">
         <v>294.548262741777</v>
@@ -33997,13 +33997,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R39" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S39" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146641</v>
       </c>
       <c r="T39" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U39" t="n">
         <v>0.1014797175140488</v>
@@ -34046,13 +34046,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H40" t="n">
-        <v>11.49748563414909</v>
+        <v>11.49748563414908</v>
       </c>
       <c r="I40" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728543</v>
       </c>
       <c r="J40" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K40" t="n">
         <v>150.2432171824388</v>
@@ -34064,7 +34064,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N40" t="n">
-        <v>197.8907726785599</v>
+        <v>197.8907726785598</v>
       </c>
       <c r="O40" t="n">
         <v>182.7841581183537</v>
@@ -34073,16 +34073,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q40" t="n">
-        <v>108.285623901991</v>
+        <v>108.2856239019909</v>
       </c>
       <c r="R40" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S40" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T40" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U40" t="n">
         <v>0.07053672168189626</v>
@@ -34137,28 +34137,28 @@
         <v>366.7166942373559</v>
       </c>
       <c r="L41" t="n">
-        <v>454.9444865097259</v>
+        <v>454.9444865097258</v>
       </c>
       <c r="M41" t="n">
-        <v>506.2133996600345</v>
+        <v>506.2133996600344</v>
       </c>
       <c r="N41" t="n">
         <v>514.4044616963494</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7375463866773</v>
+        <v>485.7375463866772</v>
       </c>
       <c r="P41" t="n">
-        <v>414.5657579057188</v>
+        <v>414.5657579057187</v>
       </c>
       <c r="Q41" t="n">
-        <v>311.3216191725815</v>
+        <v>311.3216191725814</v>
       </c>
       <c r="R41" t="n">
         <v>181.0934626092966</v>
       </c>
       <c r="S41" t="n">
-        <v>65.69426349406955</v>
+        <v>65.69426349406953</v>
       </c>
       <c r="T41" t="n">
         <v>12.61992927900337</v>
@@ -34207,7 +34207,7 @@
         <v>14.89722253106236</v>
       </c>
       <c r="I42" t="n">
-        <v>53.1077188323522</v>
+        <v>53.10771883235218</v>
       </c>
       <c r="J42" t="n">
         <v>145.731639664675</v>
@@ -34216,7 +34216,7 @@
         <v>249.0785839809822</v>
       </c>
       <c r="L42" t="n">
-        <v>334.9168943688657</v>
+        <v>334.9168943688656</v>
       </c>
       <c r="M42" t="n">
         <v>390.8322187191064</v>
@@ -34225,7 +34225,7 @@
         <v>401.1763845910385</v>
       </c>
       <c r="O42" t="n">
-        <v>366.9980157323069</v>
+        <v>366.9980157323068</v>
       </c>
       <c r="P42" t="n">
         <v>294.548262741777</v>
@@ -34234,13 +34234,13 @@
         <v>196.8977132352584</v>
       </c>
       <c r="R42" t="n">
-        <v>95.76979207525832</v>
+        <v>95.76979207525831</v>
       </c>
       <c r="S42" t="n">
-        <v>28.65110691146642</v>
+        <v>28.65110691146641</v>
       </c>
       <c r="T42" t="n">
-        <v>6.217324026360719</v>
+        <v>6.217324026360718</v>
       </c>
       <c r="U42" t="n">
         <v>0.1014797175140488</v>
@@ -34283,13 +34283,13 @@
         <v>1.293173230834763</v>
       </c>
       <c r="H43" t="n">
-        <v>11.49748563414909</v>
+        <v>11.49748563414908</v>
       </c>
       <c r="I43" t="n">
-        <v>38.88924588728544</v>
+        <v>38.88924588728543</v>
       </c>
       <c r="J43" t="n">
-        <v>91.42734742001777</v>
+        <v>91.42734742001775</v>
       </c>
       <c r="K43" t="n">
         <v>150.2432171824388</v>
@@ -34301,7 +34301,7 @@
         <v>202.7107819934893</v>
       </c>
       <c r="N43" t="n">
-        <v>197.8907726785599</v>
+        <v>197.8907726785598</v>
       </c>
       <c r="O43" t="n">
         <v>182.7841581183537</v>
@@ -34310,16 +34310,16 @@
         <v>156.4034242093244</v>
       </c>
       <c r="Q43" t="n">
-        <v>108.285623901991</v>
+        <v>108.2856239019909</v>
       </c>
       <c r="R43" t="n">
-        <v>58.14577090644307</v>
+        <v>58.14577090644306</v>
       </c>
       <c r="S43" t="n">
         <v>22.53648257736582</v>
       </c>
       <c r="T43" t="n">
-        <v>5.525376531748533</v>
+        <v>5.525376531748532</v>
       </c>
       <c r="U43" t="n">
         <v>0.07053672168189626</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O3" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N3" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35415,16 +35415,16 @@
         <v>407.5425384040855</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730412</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P11" t="n">
         <v>433.6515619588823</v>
@@ -35491,13 +35491,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>84.21201855861555</v>
+        <v>244.9750761262258</v>
       </c>
       <c r="L12" t="n">
-        <v>509.4561008748665</v>
+        <v>138.6157555714073</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122262</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N12" t="n">
         <v>680.0057497502846</v>
@@ -35509,7 +35509,7 @@
         <v>109.7875025528265</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.9666072747238</v>
+        <v>233.0438950105729</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,19 +35576,19 @@
         <v>186.6999948493111</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N13" t="n">
         <v>207.9023887233373</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P13" t="n">
         <v>126.7147238369852</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730412</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.755963945262</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122262</v>
+        <v>559.3511648291965</v>
       </c>
       <c r="N15" t="n">
-        <v>311.6039742051581</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O15" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.9666072747238</v>
+        <v>22.96660727472374</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.5453525391272</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K17" t="n">
-        <v>407.5425384040856</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L17" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M17" t="n">
-        <v>638.0987989730413</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N17" t="n">
-        <v>633.6441091513593</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P17" t="n">
-        <v>433.6515619588824</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q17" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>119.8578301584802</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>68.29072693268338</v>
+        <v>320.3746267630187</v>
       </c>
       <c r="L18" t="n">
-        <v>509.4561008748666</v>
+        <v>138.6157555714072</v>
       </c>
       <c r="M18" t="n">
-        <v>647.0155045122262</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N18" t="n">
-        <v>200.6633754067313</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O18" t="n">
-        <v>554.9858674269921</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>428.2502711927637</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q18" t="n">
-        <v>79.90967444579195</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36047,22 +36047,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M19" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O19" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.45284789935323</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.5453525391271</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
-        <v>407.5425384040855</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L20" t="n">
-        <v>558.3972305517154</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M20" t="n">
-        <v>638.0987989730412</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N20" t="n">
-        <v>633.6441091513592</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>552.6880856233096</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P20" t="n">
-        <v>433.6515619588823</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q20" t="n">
-        <v>247.6524856312122</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>119.8578301584802</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>332.755963945262</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>509.4561008748665</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>647.0155045122262</v>
+        <v>229.4160469348675</v>
       </c>
       <c r="N21" t="n">
-        <v>311.6039742051581</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O21" t="n">
         <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>109.7875025528265</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.9666072747238</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>186.6999948493111</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M22" t="n">
-        <v>207.3430310295329</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>207.9023887233373</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O22" t="n">
-        <v>175.8534296854531</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7147238369852</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.452847899353216</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K23" t="n">
-        <v>470.7722557635401</v>
+        <v>470.77225576354</v>
       </c>
       <c r="L23" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M23" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N23" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O23" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P23" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q23" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580366</v>
       </c>
       <c r="R23" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,25 +36439,25 @@
         <v>144.9850483384171</v>
       </c>
       <c r="K24" t="n">
-        <v>111.2371450066233</v>
+        <v>111.2371450066232</v>
       </c>
       <c r="L24" t="n">
-        <v>196.3625145889915</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M24" t="n">
-        <v>714.403248547088</v>
+        <v>325.7180566779735</v>
       </c>
       <c r="N24" t="n">
-        <v>749.1770468512588</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O24" t="n">
-        <v>224.4017712878625</v>
+        <v>618.2640905645919</v>
       </c>
       <c r="P24" t="n">
-        <v>165.6344345990553</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q24" t="n">
-        <v>266.993226885086</v>
+        <v>56.91593914923683</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36527,16 +36527,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N25" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577884</v>
       </c>
       <c r="O25" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323933</v>
       </c>
       <c r="P25" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.12358065029657</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K26" t="n">
-        <v>470.7722557635401</v>
+        <v>470.77225576354</v>
       </c>
       <c r="L26" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M26" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N26" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O26" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P26" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q26" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580366</v>
       </c>
       <c r="R26" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>144.9850483384171</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K27" t="n">
-        <v>116.2977242782319</v>
+        <v>167.1057571178548</v>
       </c>
       <c r="L27" t="n">
-        <v>196.3625145889915</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M27" t="n">
         <v>714.403248547088</v>
       </c>
       <c r="N27" t="n">
-        <v>749.1770468512588</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O27" t="n">
-        <v>224.4017712878625</v>
+        <v>618.2640905645919</v>
       </c>
       <c r="P27" t="n">
-        <v>160.5738553274468</v>
+        <v>160.5738553274467</v>
       </c>
       <c r="Q27" t="n">
-        <v>266.993226885086</v>
+        <v>56.91593914923683</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,16 +36764,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N28" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577884</v>
       </c>
       <c r="O28" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323933</v>
       </c>
       <c r="P28" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.12358065029657</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>232.7339139906332</v>
+        <v>232.7339139906331</v>
       </c>
       <c r="K29" t="n">
-        <v>470.7722557635401</v>
+        <v>470.77225576354</v>
       </c>
       <c r="L29" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M29" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N29" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O29" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P29" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q29" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580366</v>
       </c>
       <c r="R29" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>18.89401299800829</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K30" t="n">
-        <v>375.7023820192019</v>
+        <v>111.2371450066232</v>
       </c>
       <c r="L30" t="n">
-        <v>567.2028598924506</v>
+        <v>196.3625145889914</v>
       </c>
       <c r="M30" t="n">
-        <v>248.6981847970881</v>
+        <v>714.403248547088</v>
       </c>
       <c r="N30" t="n">
-        <v>269.8346725077052</v>
+        <v>749.1770468512586</v>
       </c>
       <c r="O30" t="n">
-        <v>556.9097607733074</v>
+        <v>247.1679049957921</v>
       </c>
       <c r="P30" t="n">
         <v>479.0366239673839</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.91593914923686</v>
+        <v>56.91593914923683</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,16 +37001,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N31" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577884</v>
       </c>
       <c r="O31" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323933</v>
       </c>
       <c r="P31" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.12358065029657</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K32" t="n">
-        <v>470.7722557635401</v>
+        <v>470.77225576354</v>
       </c>
       <c r="L32" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M32" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N32" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O32" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P32" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q32" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580366</v>
       </c>
       <c r="R32" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>144.9850483384171</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K33" t="n">
-        <v>116.2977242782319</v>
+        <v>111.2371450066232</v>
       </c>
       <c r="L33" t="n">
-        <v>196.3625145889915</v>
+        <v>537.5914169368581</v>
       </c>
       <c r="M33" t="n">
         <v>714.403248547088</v>
       </c>
       <c r="N33" t="n">
-        <v>749.1770468512588</v>
+        <v>749.1770468512586</v>
       </c>
       <c r="O33" t="n">
-        <v>224.4017712878625</v>
+        <v>224.4017712878624</v>
       </c>
       <c r="P33" t="n">
-        <v>160.5738553274468</v>
+        <v>160.5738553274467</v>
       </c>
       <c r="Q33" t="n">
-        <v>266.993226885086</v>
+        <v>56.91593914923683</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37238,16 +37238,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N34" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577884</v>
       </c>
       <c r="O34" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323933</v>
       </c>
       <c r="P34" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q34" t="n">
-        <v>22.12358065029657</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K35" t="n">
-        <v>470.7722557635401</v>
+        <v>470.77225576354</v>
       </c>
       <c r="L35" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M35" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N35" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O35" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P35" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q35" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580366</v>
       </c>
       <c r="R35" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>144.9850483384171</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K36" t="n">
-        <v>375.7023820192019</v>
+        <v>375.7023820192018</v>
       </c>
       <c r="L36" t="n">
-        <v>196.3625145889915</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M36" t="n">
-        <v>714.403248547088</v>
+        <v>371.1288865466842</v>
       </c>
       <c r="N36" t="n">
-        <v>699.8496768461378</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O36" t="n">
-        <v>224.4017712878625</v>
+        <v>224.4017712878624</v>
       </c>
       <c r="P36" t="n">
-        <v>160.5738553274468</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.91593914923686</v>
+        <v>266.993226885086</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37475,16 +37475,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N37" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577884</v>
       </c>
       <c r="O37" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323933</v>
       </c>
       <c r="P37" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.12358065029657</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K38" t="n">
-        <v>470.7722557635401</v>
+        <v>470.77225576354</v>
       </c>
       <c r="L38" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M38" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N38" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O38" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P38" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q38" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580366</v>
       </c>
       <c r="R38" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>144.9850483384171</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K39" t="n">
-        <v>116.2977242782319</v>
+        <v>375.7023820192018</v>
       </c>
       <c r="L39" t="n">
-        <v>196.3625145889915</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M39" t="n">
-        <v>714.403248547088</v>
+        <v>371.1288865466842</v>
       </c>
       <c r="N39" t="n">
-        <v>749.1770468512588</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O39" t="n">
-        <v>224.4017712878625</v>
+        <v>224.4017712878624</v>
       </c>
       <c r="P39" t="n">
-        <v>160.5738553274468</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q39" t="n">
         <v>266.993226885086</v>
@@ -37712,16 +37712,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N40" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577884</v>
       </c>
       <c r="O40" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323933</v>
       </c>
       <c r="P40" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.12358065029657</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>232.7339139906331</v>
       </c>
       <c r="K41" t="n">
-        <v>470.7722557635401</v>
+        <v>470.77225576354</v>
       </c>
       <c r="L41" t="n">
         <v>636.839286090189</v>
       </c>
       <c r="M41" t="n">
-        <v>725.3806999255943</v>
+        <v>725.3806999255942</v>
       </c>
       <c r="N41" t="n">
         <v>722.3383225117426</v>
       </c>
       <c r="O41" t="n">
-        <v>636.4395162277359</v>
+        <v>636.4395162277358</v>
       </c>
       <c r="P41" t="n">
-        <v>505.1314703219319</v>
+        <v>505.1314703219318</v>
       </c>
       <c r="Q41" t="n">
-        <v>301.3309199580367</v>
+        <v>301.3309199580366</v>
       </c>
       <c r="R41" t="n">
-        <v>31.2243446681469</v>
+        <v>31.22434466814687</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>18.89401299800829</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K42" t="n">
-        <v>111.2371450066233</v>
+        <v>375.7023820192018</v>
       </c>
       <c r="L42" t="n">
-        <v>560.2364793778955</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M42" t="n">
-        <v>248.6981847970881</v>
+        <v>371.1288865466842</v>
       </c>
       <c r="N42" t="n">
-        <v>269.8346725077052</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O42" t="n">
-        <v>618.2640905645919</v>
+        <v>224.4017712878624</v>
       </c>
       <c r="P42" t="n">
         <v>479.0366239673839</v>
@@ -37949,16 +37949,16 @@
         <v>242.2946589553299</v>
       </c>
       <c r="N43" t="n">
-        <v>242.0229450577885</v>
+        <v>242.0229450577884</v>
       </c>
       <c r="O43" t="n">
-        <v>207.3692860323934</v>
+        <v>207.3692860323933</v>
       </c>
       <c r="P43" t="n">
         <v>153.6819834742179</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.12358065029657</v>
+        <v>22.12358065029656</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>144.9850483384171</v>
+        <v>18.89401299800826</v>
       </c>
       <c r="K45" t="n">
-        <v>116.297724278232</v>
+        <v>375.7023820192018</v>
       </c>
       <c r="L45" t="n">
-        <v>196.3625145889914</v>
+        <v>567.2028598924505</v>
       </c>
       <c r="M45" t="n">
-        <v>714.403248547088</v>
+        <v>371.1288865466842</v>
       </c>
       <c r="N45" t="n">
-        <v>749.1770468512586</v>
+        <v>269.8346725077051</v>
       </c>
       <c r="O45" t="n">
         <v>224.4017712878624</v>
       </c>
       <c r="P45" t="n">
-        <v>160.5738553274467</v>
+        <v>479.0366239673839</v>
       </c>
       <c r="Q45" t="n">
         <v>266.993226885086</v>
